--- a/5-Manual.xlsx
+++ b/5-Manual.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A092E0-5CBB-465B-BDBA-C81CF257BE1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E5407-002D-43C3-B7CD-A90AF198732E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="516" windowWidth="21828" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>lr_prtr</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>bad reconstr, snowflake</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>pca_dim</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>raw+dsift+pca</t>
   </si>
 </sst>
 </file>
@@ -618,12 +630,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -635,28 +641,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="59">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -674,9 +686,7 @@
       </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
@@ -699,6 +709,68 @@
         <right style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
@@ -816,6 +888,33 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -823,21 +922,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -881,11 +965,183 @@
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
           <color indexed="64"/>
-        </right>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
         <vertical/>
+        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -914,24 +1170,6 @@
       </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
         <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -944,79 +1182,16 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1027,21 +1202,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1084,9 +1244,19 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
@@ -1106,91 +1276,9 @@
       </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
         <right style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
@@ -1284,26 +1372,52 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1340,16 +1454,45 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1364,143 +1507,35 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
         <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1511,21 +1546,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2656,78 +2676,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81EC6CC0-7D5B-41FA-A2C5-77E3040A94D2}" name="Table1" displayName="Table1" ref="A2:E11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="24" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81EC6CC0-7D5B-41FA-A2C5-77E3040A94D2}" name="Table1" displayName="Table1" ref="A2:E11" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
   <autoFilter ref="A2:E11" xr:uid="{970AC7E0-F1FA-4648-B6EE-E9EC0853F094}"/>
   <tableColumns count="5">
-    <tableColumn id="17" xr3:uid="{B164DDCF-6FAF-4886-93D6-A4C5995FDCE4}" name="pca" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{CF02B6EA-3A46-4D3C-A579-91BEB5D1C68B}" name="i1/i2" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{D0ABF307-F7D7-46FF-A6EF-2A112B13BE2D}" name="alph1" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{D2DFAE58-298D-4362-A652-A0D01102309B}" name="acc" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{99B403B5-016F-4819-9D32-216B90291D39}" name="notes" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{B164DDCF-6FAF-4886-93D6-A4C5995FDCE4}" name="pca" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{CF02B6EA-3A46-4D3C-A579-91BEB5D1C68B}" name="i1/i2" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{D0ABF307-F7D7-46FF-A6EF-2A112B13BE2D}" name="alph1" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{D2DFAE58-298D-4362-A652-A0D01102309B}" name="acc" dataDxfId="51"/>
+    <tableColumn id="13" xr3:uid="{99B403B5-016F-4819-9D32-216B90291D39}" name="notes" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00CDF5DE-0375-4BDB-B23A-AF564A5A527A}" name="Table13" displayName="Table13" ref="A25:K36" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="A25:K36" xr:uid="{EAE40F85-04B2-431F-950A-5FD70A546887}"/>
-  <tableColumns count="11">
-    <tableColumn id="14" xr3:uid="{AC8A531F-7315-4314-89D2-8919F8970F5F}" name="pca" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{572CF684-EE38-4551-9747-6A8BEF707F3C}" name="layers" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{AC9CAC91-E2BE-4A00-8891-4EAB27D5F73C}" name="pre_ep" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{21F2DACE-56C6-417D-B173-DC93C690501C}" name="epochs" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4AF91561-887D-4E32-A02E-9D7FA6986FBB}" name="i1/i2" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{DC90DC99-F0B3-4E29-8612-A3432C16D576}" name="lr_prtr" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{EF34CB1B-E29C-45C0-80BB-25846005F453}" name="learnr" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{B614A6AA-2FDA-4D30-B8A7-9D3FD682F832}" name="lamb2" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{57A94BED-C4AA-4240-A4A5-6CE072FDC84C}" name="alph2" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{D21931B9-F580-4A37-8FFC-BF819F14B3FC}" name="acc" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{B3685B6E-B0FB-49F7-8FD4-7AD9BCE47559}" name="notes" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00CDF5DE-0375-4BDB-B23A-AF564A5A527A}" name="Table13" displayName="Table13" ref="A25:L36" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
+  <autoFilter ref="A25:L36" xr:uid="{EAE40F85-04B2-431F-950A-5FD70A546887}"/>
+  <tableColumns count="12">
+    <tableColumn id="5" xr3:uid="{931BD193-043B-47F6-9929-51D7539734E4}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{AC8A531F-7315-4314-89D2-8919F8970F5F}" name="pca_dim" dataDxfId="45"/>
+    <tableColumn id="15" xr3:uid="{572CF684-EE38-4551-9747-6A8BEF707F3C}" name="layers" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{AC9CAC91-E2BE-4A00-8891-4EAB27D5F73C}" name="pre_ep" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{21F2DACE-56C6-417D-B173-DC93C690501C}" name="epochs" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{4AF91561-887D-4E32-A02E-9D7FA6986FBB}" name="i1/i2" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{DC90DC99-F0B3-4E29-8612-A3432C16D576}" name="lr_prtr" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{EF34CB1B-E29C-45C0-80BB-25846005F453}" name="learnr" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{B614A6AA-2FDA-4D30-B8A7-9D3FD682F832}" name="lamb2" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{57A94BED-C4AA-4240-A4A5-6CE072FDC84C}" name="alph2" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{D21931B9-F580-4A37-8FFC-BF819F14B3FC}" name="acc" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{B3685B6E-B0FB-49F7-8FD4-7AD9BCE47559}" name="notes" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4016D69D-5CAF-4304-8329-7F5BD54975D7}" name="Table15" displayName="Table15" ref="M2:Y6" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" headerRowBorderDxfId="54" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4016D69D-5CAF-4304-8329-7F5BD54975D7}" name="Table15" displayName="Table15" ref="M2:Y6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
   <autoFilter ref="M2:Y6" xr:uid="{B208906F-7FE0-4F3C-AAB7-A79C072068FA}"/>
   <tableColumns count="13">
-    <tableColumn id="14" xr3:uid="{5DDE1E6F-F2D6-4BE2-83AC-B2FCEDAB8587}" name="pca" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{5597B765-CF6D-48D7-AF1D-795C0B8F8605}" name="layers" dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{0FC9A684-A03C-4666-A357-BEA7ED6897E6}" name="pre_ep" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{DDE21D6F-2180-4F46-8F90-FF1313A0CF78}" name="epochs" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{47498AC8-A90A-44DB-B214-70FE20E47B92}" name="i1/i2" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{7C53C13A-C543-4CAA-9D53-E229142BB86C}" name="lr_prtr" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{F5BEB2A4-E0AC-476B-A6AD-99DFEC92DE30}" name="alph1" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{41A24998-EA10-4CF9-A5A6-6A1361A662E1}" name="learnr" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{575B5BAF-5A93-47E1-A197-E57A97FE7A78}" name="lamb1" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{9239EAB0-08CB-426A-9E9F-F7725DFFFEC3}" name="lamb2" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{96E1DA8E-9E66-4610-B36B-F9C903BE47C3}" name="alph2" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{709A0902-1971-42D7-8DE5-AFCEB77322D0}" name="acc" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{422E8FFC-78A8-44F0-A1A0-8ACB9C29F021}" name="notes" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{5DDE1E6F-F2D6-4BE2-83AC-B2FCEDAB8587}" name="pca" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{5597B765-CF6D-48D7-AF1D-795C0B8F8605}" name="layers" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{0FC9A684-A03C-4666-A357-BEA7ED6897E6}" name="pre_ep" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{DDE21D6F-2180-4F46-8F90-FF1313A0CF78}" name="epochs" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{47498AC8-A90A-44DB-B214-70FE20E47B92}" name="i1/i2" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{7C53C13A-C543-4CAA-9D53-E229142BB86C}" name="lr_prtr" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{F5BEB2A4-E0AC-476B-A6AD-99DFEC92DE30}" name="alph1" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{41A24998-EA10-4CF9-A5A6-6A1361A662E1}" name="learnr" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{575B5BAF-5A93-47E1-A197-E57A97FE7A78}" name="lamb1" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{9239EAB0-08CB-426A-9E9F-F7725DFFFEC3}" name="lamb2" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{96E1DA8E-9E66-4610-B36B-F9C903BE47C3}" name="alph2" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{709A0902-1971-42D7-8DE5-AFCEB77322D0}" name="acc" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{422E8FFC-78A8-44F0-A1A0-8ACB9C29F021}" name="notes" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FFAEAE33-3FBC-4430-88D8-FE817172CD49}" name="Table16" displayName="Table16" ref="M25:Y29" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowBorderDxfId="40" tableBorderDxfId="41">
-  <autoFilter ref="M25:Y29" xr:uid="{BCE1FC0C-5EB3-4AB6-9340-C41EA5B30D38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FFAEAE33-3FBC-4430-88D8-FE817172CD49}" name="Table16" displayName="Table16" ref="N25:Z29" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+  <autoFilter ref="N25:Z29" xr:uid="{BCE1FC0C-5EB3-4AB6-9340-C41EA5B30D38}"/>
   <tableColumns count="13">
-    <tableColumn id="14" xr3:uid="{1C7798C3-6D5E-43EA-B2D8-E63F254AC79C}" name="pca" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{5D42A5FF-D86F-4EE5-9029-F611334564EE}" name="layers" dataDxfId="16"/>
-    <tableColumn id="1" xr3:uid="{9C956116-FB38-4412-ADF1-3CF45803D5AE}" name="pre_ep" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{016E1EA2-C1F2-4D9A-9D52-E666817617C2}" name="epochs" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{2985F4EB-6BFF-4A64-A8F8-7964E9AFC23D}" name="i1/i2" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{BB795376-94EC-45A0-A320-636FDA2E458C}" name="lr_prtr" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{CCEA4703-03C0-46A2-AEB2-8E8A318BCC07}" name="alph1" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{BE649A4F-DA29-4811-AC4F-A76699BA434E}" name="learnr" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{7628F750-0BC7-4BAE-A2E5-19FC5A714D78}" name="lamb1" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{C7AD7A71-29EC-42C7-A9C6-3A56888DE895}" name="lamb2" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{EDC4218C-31B6-47E8-B0DA-E59D42ECE5B1}" name="alph2" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{5F0B4EDC-8B04-4BC7-9FF2-3245C63C556F}" name="acc" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{3E2205B4-3B51-4FFE-B357-413D7E1C3A5E}" name="notes" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{1C7798C3-6D5E-43EA-B2D8-E63F254AC79C}" name="pca" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{5D42A5FF-D86F-4EE5-9029-F611334564EE}" name="layers" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{9C956116-FB38-4412-ADF1-3CF45803D5AE}" name="pre_ep" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{016E1EA2-C1F2-4D9A-9D52-E666817617C2}" name="epochs" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2985F4EB-6BFF-4A64-A8F8-7964E9AFC23D}" name="i1/i2" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BB795376-94EC-45A0-A320-636FDA2E458C}" name="lr_prtr" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{CCEA4703-03C0-46A2-AEB2-8E8A318BCC07}" name="alph1" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{BE649A4F-DA29-4811-AC4F-A76699BA434E}" name="learnr" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{7628F750-0BC7-4BAE-A2E5-19FC5A714D78}" name="lamb1" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{C7AD7A71-29EC-42C7-A9C6-3A56888DE895}" name="lamb2" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{EDC4218C-31B6-47E8-B0DA-E59D42ECE5B1}" name="alph2" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{5F0B4EDC-8B04-4BC7-9FF2-3245C63C556F}" name="acc" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{3E2205B4-3B51-4FFE-B357-413D7E1C3A5E}" name="notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3008,15 +3029,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -3028,13 +3051,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="G1" t="s">
         <v>13</v>
       </c>
@@ -3055,13 +3078,13 @@
       <c r="Y1" s="26"/>
     </row>
     <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -3073,10 +3096,10 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="23" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -3088,7 +3111,7 @@
       <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="S2" s="6" t="s">
@@ -3103,7 +3126,7 @@
       <c r="V2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="X2" s="9" t="s">
@@ -3114,25 +3137,25 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
+      <c r="A3" s="22">
         <v>300</v>
       </c>
       <c r="B3">
         <v>63</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>6.9083605566357997</v>
       </c>
       <c r="D3" s="8">
         <v>0.90416666666666601</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="21" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="28"/>
+      <c r="N3" s="22"/>
       <c r="O3">
         <v>1000</v>
       </c>
@@ -3142,7 +3165,7 @@
       <c r="Q3">
         <v>63</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="11">
         <v>7.1515104499875201E-3</v>
       </c>
       <c r="S3" s="7">
@@ -3157,7 +3180,7 @@
       <c r="V3" s="7">
         <v>0.103887216065776</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="15">
         <v>3.69971498280144</v>
       </c>
       <c r="X3" s="8">
@@ -3166,22 +3189,22 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
+      <c r="A4" s="22">
         <v>300</v>
       </c>
       <c r="B4">
         <v>63</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <v>3.0041056435615601</v>
       </c>
       <c r="D4" s="4">
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="28"/>
+      <c r="N4" s="22"/>
       <c r="O4">
         <v>1000</v>
       </c>
@@ -3191,7 +3214,7 @@
       <c r="Q4">
         <v>63</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="12">
         <v>7.1515104499875201E-3</v>
       </c>
       <c r="S4" s="3">
@@ -3206,7 +3229,7 @@
       <c r="V4" s="3">
         <v>0.103887216065776</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="16">
         <v>3.69971498280144</v>
       </c>
       <c r="X4" s="4">
@@ -3215,26 +3238,26 @@
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="A5" s="22">
         <v>300</v>
       </c>
       <c r="B5">
         <v>1000</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>6.9083605566357997</v>
       </c>
       <c r="D5" s="4">
         <v>0.77708333333333302</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="R5" s="14">
+      <c r="N5" s="22"/>
+      <c r="R5" s="12">
         <v>7.1515104499875201E-3</v>
       </c>
       <c r="S5" s="3">
@@ -3249,74 +3272,74 @@
       <c r="V5" s="3">
         <v>0.103887216065776</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="16">
         <v>3.69971498280144</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+      <c r="A6" s="22">
         <v>300</v>
       </c>
       <c r="B6">
         <v>1000</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>3.0041056435615601</v>
       </c>
       <c r="D6" s="5">
         <v>0.88055555555555498</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="28"/>
-      <c r="R6" s="15"/>
+      <c r="N6" s="22"/>
+      <c r="R6" s="13"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="19"/>
+      <c r="W6" s="17"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="2"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="A7" s="22">
         <v>300</v>
       </c>
       <c r="B7">
         <v>50</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>7</v>
       </c>
       <c r="D7" s="4">
         <v>0.85277777777777697</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="22">
         <v>300</v>
       </c>
       <c r="B8">
         <v>62</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <v>6.9</v>
       </c>
       <c r="D8" s="5">
         <v>0.90416666666666601</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="21" t="s">
         <v>19</v>
       </c>
       <c r="G8" t="s">
@@ -3330,19 +3353,19 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="22">
         <v>300</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>10</v>
       </c>
       <c r="D9" s="4">
         <v>0.85277777777777697</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G9">
@@ -3359,19 +3382,19 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="22">
         <v>300</v>
       </c>
       <c r="B10">
         <v>100</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>1000</v>
       </c>
       <c r="D10" s="4">
         <v>0.44305555555555498</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="21" t="s">
         <v>23</v>
       </c>
       <c r="G10">
@@ -3388,19 +3411,19 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="A11" s="22">
         <v>300</v>
       </c>
       <c r="B11">
         <v>63</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="20">
         <v>99999</v>
       </c>
       <c r="D11" s="2">
         <v>0.52361111111111103</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="21" t="s">
         <v>31</v>
       </c>
       <c r="G11">
@@ -3409,546 +3432,586 @@
       <c r="H11">
         <v>0.12868836723166699</v>
       </c>
+      <c r="I11">
+        <v>0.12868836723166699</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="M24" s="25" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="N24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
     </row>
-    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="29" t="s">
+    <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="O25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="S25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="T25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="V25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="X25" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="Y25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="Z25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="V25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="W25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="X25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y25" s="9" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
         <v>300</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="C26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>250</v>
       </c>
-      <c r="F26" s="13">
+      <c r="G26" s="11">
         <v>8.97835455410834E-3</v>
       </c>
-      <c r="G26" s="7">
+      <c r="H26" s="7">
         <v>3.5655254365349703E-5</v>
       </c>
-      <c r="H26" s="7">
+      <c r="I26" s="7">
         <v>5.7845337472110098E-2</v>
       </c>
-      <c r="I26" s="17">
+      <c r="J26" s="15">
         <v>2.9019952016992101</v>
       </c>
-      <c r="J26" s="8">
+      <c r="K26" s="8">
         <v>0.82499999999999996</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>27</v>
       </c>
-      <c r="N26" s="28"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="7"/>
+      <c r="O26" s="22"/>
+      <c r="S26" s="11"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
         <v>300</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="C27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>250</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>63</v>
       </c>
-      <c r="F27" s="14">
+      <c r="G27" s="12">
         <v>6.3720283621781096E-3</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1.1633164353256201E-5</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="I27" s="18">
+      <c r="J27" s="16">
         <v>4.0851568553031097</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="4">
         <v>0.85624999999999996</v>
       </c>
-      <c r="N27" s="28"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="3"/>
+      <c r="O27" s="22"/>
+      <c r="S27" s="12"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28">
         <v>300</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="C28" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>250</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>63</v>
       </c>
-      <c r="F28" s="14">
+      <c r="G28" s="12">
         <v>6.3720283621781096E-3</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <v>1.1633164353256201E-5</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="I28" s="18">
+      <c r="J28" s="16">
         <v>4.0851568553031097</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>0.60277777777777697</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="28"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="3"/>
+      <c r="O28" s="22"/>
+      <c r="S28" s="12"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
         <v>300</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="C29" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>10000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>5000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>63</v>
       </c>
-      <c r="F29" s="14">
+      <c r="G29" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="I29" s="18">
+      <c r="J29" s="16">
         <v>4.0851568553031097</v>
       </c>
-      <c r="J29" s="5">
+      <c r="K29" s="5">
         <v>0.77847222222222201</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="28"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="2"/>
+      <c r="O29" s="22"/>
+      <c r="S29" s="13"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30">
         <v>300</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="C30" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>10000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>5000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>63</v>
       </c>
-      <c r="F30" s="14">
+      <c r="G30" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="I30" s="18">
+      <c r="J30" s="16">
         <v>99999</v>
       </c>
-      <c r="J30" s="5">
+      <c r="K30" s="5">
         <v>0.44791666666666602</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
         <v>1000</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="C31" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="C31">
-        <v>5000</v>
       </c>
       <c r="D31">
         <v>5000</v>
       </c>
       <c r="E31">
+        <v>5000</v>
+      </c>
+      <c r="F31">
         <v>63</v>
       </c>
-      <c r="F31" s="14">
+      <c r="G31" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="I31" s="19">
+      <c r="J31" s="17">
         <v>10</v>
       </c>
-      <c r="J31" s="5">
+      <c r="K31" s="5">
         <v>0.844444444444444</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
         <v>1000</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="C32" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="C32">
-        <v>5000</v>
       </c>
       <c r="D32">
         <v>5000</v>
       </c>
       <c r="E32">
+        <v>5000</v>
+      </c>
+      <c r="F32">
         <v>63</v>
       </c>
-      <c r="F32" s="14">
+      <c r="G32" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="I32" s="5">
+      <c r="J32" s="5">
         <v>99999</v>
       </c>
-      <c r="J32" s="5">
+      <c r="K32" s="5">
         <v>0.563888888888888</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="C33">
-        <v>1000</v>
       </c>
       <c r="D33">
         <v>1000</v>
       </c>
       <c r="E33">
+        <v>1000</v>
+      </c>
+      <c r="F33">
         <v>10</v>
       </c>
-      <c r="F33" s="14">
+      <c r="G33" s="12">
         <v>0.05</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1E-4</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="I33" s="5">
+      <c r="J33" s="5">
         <v>5</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>0.156944444444444</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="C34">
-        <v>1000</v>
       </c>
       <c r="D34">
         <v>1000</v>
       </c>
       <c r="E34">
+        <v>1000</v>
+      </c>
+      <c r="F34">
         <v>10</v>
       </c>
-      <c r="F34" s="15">
+      <c r="G34" s="13">
         <v>0.05</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>1E-4</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="2">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="I34" s="5">
+      <c r="J34" s="5">
         <v>10</v>
       </c>
-      <c r="J34" s="5">
+      <c r="K34" s="5">
         <v>0.75763888888888797</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="C35">
-        <v>1000</v>
       </c>
       <c r="D35">
         <v>1000</v>
       </c>
       <c r="E35">
+        <v>1000</v>
+      </c>
+      <c r="F35">
         <v>10</v>
       </c>
-      <c r="F35" s="15">
+      <c r="G35" s="13">
         <v>0.05</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>1E-4</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="I35" s="5">
+      <c r="J35" s="5">
         <v>100</v>
       </c>
-      <c r="J35" s="5">
+      <c r="K35" s="5">
         <v>0.66180555555555498</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="C36">
-        <v>1000</v>
       </c>
       <c r="D36">
         <v>1000</v>
       </c>
       <c r="E36">
+        <v>1000</v>
+      </c>
+      <c r="F36">
         <v>10</v>
       </c>
-      <c r="F36" s="15">
+      <c r="G36" s="13">
         <v>0.05</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>1E-4</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="I36" s="5">
+      <c r="J36" s="5">
         <v>99999</v>
       </c>
-      <c r="J36" s="5">
+      <c r="K36" s="5">
         <v>0.60972222222222205</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="25" t="s">
         <v>48</v>
       </c>
       <c r="G57" t="s">
@@ -3962,22 +4025,22 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="31">
+      <c r="A58" s="25">
         <v>31.01</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B58" s="25">
         <v>31.25</v>
       </c>
-      <c r="C58" s="31">
+      <c r="C58" s="25">
         <v>14.86</v>
       </c>
-      <c r="D58" s="31">
+      <c r="D58" s="25">
         <v>24.65</v>
       </c>
-      <c r="E58" s="31">
+      <c r="E58" s="25">
         <v>45.9</v>
       </c>
-      <c r="F58" s="31">
+      <c r="F58" s="25">
         <v>14.86</v>
       </c>
       <c r="G58">
@@ -3998,10 +4061,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="M1:Y1"/>
-    <mergeCell ref="M24:Y24"/>
+    <mergeCell ref="N24:Z24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A24:L24"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D11">
     <cfRule type="colorScale" priority="3">
@@ -4015,7 +4078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J36">
+  <conditionalFormatting sqref="K26:K36">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/5-Manual.xlsx
+++ b/5-Manual.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E5407-002D-43C3-B7CD-A90AF198732E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2458E2-8812-46A7-BB3A-BDB795D0405A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
   <si>
     <t>lr_prtr</t>
   </si>
@@ -61,18 +61,6 @@
     <t>TODO</t>
   </si>
   <si>
-    <t>Temporarily switching back to manual tuning</t>
-  </si>
-  <si>
-    <t>Want to run large models, with less constraints</t>
-  </si>
-  <si>
-    <t>by validating with stepwise visual confirmation</t>
-  </si>
-  <si>
-    <t>Obviously, not rigorous</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -124,77 +112,12 @@
     <t>150, 50, 150</t>
   </si>
   <si>
-    <t>Symmetrical</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Norm</t>
-  </si>
-  <si>
-    <t>Sym</t>
-  </si>
-  <si>
-    <t>&lt; re-evaled on norm opt,</t>
-  </si>
-  <si>
-    <t>seeds [100, 130)</t>
-  </si>
-  <si>
     <t>very dense, smooth</t>
   </si>
   <si>
     <t>continuous, assymetric</t>
   </si>
   <si>
-    <t>SSC+AE</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>KSSC</t>
-  </si>
-  <si>
-    <t>LRR</t>
-  </si>
-  <si>
-    <t>LRSC</t>
-  </si>
-  <si>
-    <t>SSC-OMP</t>
-  </si>
-  <si>
-    <t>EDSC</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">^ From P.Ji </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>raw</t>
   </si>
   <si>
@@ -210,9 +133,6 @@
     <t>bad reconstr, overlapping rectangles</t>
   </si>
   <si>
-    <t>bad reconstr, snowflake</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -223,13 +143,28 @@
   </si>
   <si>
     <t>raw+dsift+pca</t>
+  </si>
+  <si>
+    <t>bad reconstr, snowflake pattern</t>
+  </si>
+  <si>
+    <t>bad reconstr, corners, weird horizonal lines</t>
+  </si>
+  <si>
+    <t>bad reconstr, residue</t>
+  </si>
+  <si>
+    <t>300, 150, 300</t>
+  </si>
+  <si>
+    <t>bad reconstr, assymetric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,16 +186,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,12 +210,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
@@ -321,14 +242,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -379,19 +294,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="4" tint="0.39997558519241921"/>
@@ -619,49 +521,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1599,1082 +1494,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Error rate on COIL20</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-358A-48A0-ADFA-E142CDBE7252}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-358A-48A0-ADFA-E142CDBE7252}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-358A-48A0-ADFA-E142CDBE7252}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-358A-48A0-ADFA-E142CDBE7252}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-358A-48A0-ADFA-E142CDBE7252}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-358A-48A0-ADFA-E142CDBE7252}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-358A-48A0-ADFA-E142CDBE7252}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-358A-48A0-ADFA-E142CDBE7252}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$57:$I$57</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>LRR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LRSC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SSC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>KSSC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SSC-OMP</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>EDSC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SSC+AE</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Global</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sym</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$58:$I$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>31.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.65</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.0615213788776</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.0191724473232</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.9039636162868</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-358A-48A0-ADFA-E142CDBE7252}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:overlap val="-17"/>
-        <c:axId val="373601720"/>
-        <c:axId val="373605328"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="373601720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="373605328"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="373605328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="373601720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>118110</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C5360F-F26B-448B-856E-DAD42E459257}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81EC6CC0-7D5B-41FA-A2C5-77E3040A94D2}" name="Table1" displayName="Table1" ref="A2:E11" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
   <autoFilter ref="A2:E11" xr:uid="{970AC7E0-F1FA-4648-B6EE-E9EC0853F094}"/>
@@ -2690,8 +1509,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00CDF5DE-0375-4BDB-B23A-AF564A5A527A}" name="Table13" displayName="Table13" ref="A25:L36" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
-  <autoFilter ref="A25:L36" xr:uid="{EAE40F85-04B2-431F-950A-5FD70A546887}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00CDF5DE-0375-4BDB-B23A-AF564A5A527A}" name="Table13" displayName="Table13" ref="A25:L39" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
+  <autoFilter ref="A25:L39" xr:uid="{EAE40F85-04B2-431F-950A-5FD70A546887}"/>
   <tableColumns count="12">
     <tableColumn id="5" xr3:uid="{931BD193-043B-47F6-9929-51D7539734E4}" name="Column1" dataDxfId="0"/>
     <tableColumn id="14" xr3:uid="{AC8A531F-7315-4314-89D2-8919F8970F5F}" name="pca_dim" dataDxfId="45"/>
@@ -2749,18 +1568,6 @@
     <tableColumn id="10" xr3:uid="{EDC4218C-31B6-47E8-B0DA-E59D42ECE5B1}" name="alph2" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{5F0B4EDC-8B04-4BC7-9FF2-3245C63C556F}" name="acc" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{3E2205B4-3B51-4FFE-B357-413D7E1C3A5E}" name="notes" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D36AB386-0AD5-4804-A8B1-B8E7A54D52E2}" name="Table6" displayName="Table6" ref="G8:I11" totalsRowShown="0">
-  <autoFilter ref="G8:I11" xr:uid="{6B13C148-45B7-4D38-88CE-5AA00B7F12D2}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{52E93633-37C9-4DDE-9E5D-8D7B4A8CE130}" name="Scenario"/>
-    <tableColumn id="2" xr3:uid="{2E61688E-CAC8-4A1E-8D1A-A6C09C28F46D}" name="Norm"/>
-    <tableColumn id="3" xr3:uid="{F503303E-5438-4EC0-ABA1-305E7499B2F3}" name="Sym"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3029,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3044,42 +1851,40 @@
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
     <col min="14" max="14" width="12.21875" customWidth="1"/>
     <col min="23" max="23" width="9.21875" customWidth="1"/>
     <col min="25" max="25" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="26" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="M1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
     </row>
     <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -3088,19 +1893,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>6</v>
@@ -3130,10 +1932,10 @@
         <v>5</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -3150,9 +1952,6 @@
         <v>0.90416666666666601</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="22"/>
@@ -3202,7 +2001,7 @@
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N4" s="22"/>
       <c r="O4">
@@ -3251,9 +2050,6 @@
         <v>0.77708333333333302</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
         <v>16</v>
       </c>
       <c r="N5" s="22"/>
@@ -3292,7 +2088,7 @@
         <v>0.88055555555555498</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N6" s="22"/>
       <c r="R6" s="13"/>
@@ -3318,13 +2114,8 @@
         <v>0.85277777777777697</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
@@ -3340,16 +2131,7 @@
         <v>0.90416666666666601</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -3366,19 +2148,7 @@
         <v>0.85277777777777697</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
-      </c>
-      <c r="H9">
-        <v>0.12200828732853999</v>
-      </c>
-      <c r="I9">
-        <v>0.124429276853726</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -3395,19 +2165,7 @@
         <v>0.44305555555555498</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>0.120191724473232</v>
-      </c>
-      <c r="I10">
-        <v>0.119039636162868</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -3424,58 +2182,49 @@
         <v>0.52361111111111103</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11">
-        <v>21</v>
-      </c>
-      <c r="H11">
-        <v>0.12868836723166699</v>
-      </c>
-      <c r="I11">
-        <v>0.12868836723166699</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="N24" s="27" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="N24" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
     </row>
     <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
@@ -3499,16 +2248,16 @@
         <v>5</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N25" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>6</v>
@@ -3538,21 +2287,21 @@
         <v>5</v>
       </c>
       <c r="Y25" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>300</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>4000</v>
@@ -3579,7 +2328,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="L26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O26" s="22"/>
       <c r="S26" s="11"/>
@@ -3593,13 +2342,13 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>300</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>1000</v>
@@ -3637,13 +2386,13 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>300</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <v>1000</v>
@@ -3670,7 +2419,7 @@
         <v>0.60277777777777697</v>
       </c>
       <c r="L28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O28" s="22"/>
       <c r="S28" s="12"/>
@@ -3684,13 +2433,13 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>300</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D29">
         <v>10000</v>
@@ -3717,7 +2466,7 @@
         <v>0.77847222222222201</v>
       </c>
       <c r="L29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O29" s="22"/>
       <c r="S29" s="13"/>
@@ -3731,13 +2480,13 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>300</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D30">
         <v>10000</v>
@@ -3764,18 +2513,18 @@
         <v>0.44791666666666602</v>
       </c>
       <c r="L30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>1000</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D31">
         <v>5000</v>
@@ -3802,18 +2551,18 @@
         <v>0.844444444444444</v>
       </c>
       <c r="L31" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>1000</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <v>5000</v>
@@ -3833,25 +2582,25 @@
       <c r="I32" s="3">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="17">
         <v>99999</v>
       </c>
       <c r="K32" s="5">
         <v>0.563888888888888</v>
       </c>
       <c r="L32" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>1000</v>
@@ -3871,25 +2620,25 @@
       <c r="I33" s="3">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="17">
         <v>5</v>
       </c>
       <c r="K33" s="4">
         <v>0.156944444444444</v>
       </c>
       <c r="L33" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>1000</v>
@@ -3909,25 +2658,25 @@
       <c r="I34" s="2">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="17">
         <v>10</v>
       </c>
       <c r="K34" s="5">
         <v>0.75763888888888797</v>
       </c>
       <c r="L34" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>1000</v>
@@ -3947,25 +2696,25 @@
       <c r="I35" s="2">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="17">
         <v>100</v>
       </c>
       <c r="K35" s="5">
         <v>0.66180555555555498</v>
       </c>
       <c r="L35" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>1000</v>
@@ -3985,85 +2734,135 @@
       <c r="I36" s="2">
         <v>5.0882338549171199E-3</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="17">
         <v>99999</v>
       </c>
       <c r="K36" s="5">
         <v>0.60972222222222205</v>
       </c>
       <c r="L36" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>1000</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>5000</v>
+      </c>
+      <c r="E37">
+        <v>5000</v>
+      </c>
+      <c r="F37">
+        <v>63</v>
+      </c>
+      <c r="G37" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I37" s="2">
+        <v>5.0882338549171199E-3</v>
+      </c>
+      <c r="J37" s="17">
+        <v>10</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.55486111111111103</v>
+      </c>
+      <c r="L37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>1000</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>5000</v>
+      </c>
+      <c r="E38">
+        <v>5000</v>
+      </c>
+      <c r="F38">
+        <v>63</v>
+      </c>
+      <c r="G38" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I38" s="2">
+        <v>5.0882338549171199E-3</v>
+      </c>
+      <c r="J38" s="17">
+        <v>99999</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0.65486111111111101</v>
+      </c>
+      <c r="L38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>1000</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>1000</v>
+      </c>
+      <c r="E39">
+        <v>5000</v>
+      </c>
+      <c r="F39">
+        <v>63</v>
+      </c>
+      <c r="G39" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="I39" s="2">
+        <v>5.0882338549171199E-3</v>
+      </c>
+      <c r="J39" s="17">
+        <v>20</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.561805555555555</v>
+      </c>
+      <c r="L39" t="s">
         <v>45</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G57" t="s">
-        <v>42</v>
-      </c>
-      <c r="H57" t="s">
-        <v>43</v>
-      </c>
-      <c r="I57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="25">
-        <v>31.01</v>
-      </c>
-      <c r="B58" s="25">
-        <v>31.25</v>
-      </c>
-      <c r="C58" s="25">
-        <v>14.86</v>
-      </c>
-      <c r="D58" s="25">
-        <v>24.65</v>
-      </c>
-      <c r="E58" s="25">
-        <v>45.9</v>
-      </c>
-      <c r="F58" s="25">
-        <v>14.86</v>
-      </c>
-      <c r="G58">
-        <v>12.0615213788776</v>
-      </c>
-      <c r="H58">
-        <v>12.0191724473232</v>
-      </c>
-      <c r="I58">
-        <v>11.9039636162868</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="M1:Y1"/>
     <mergeCell ref="N24:Z24"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G7:I7"/>
     <mergeCell ref="A24:L24"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D11">
@@ -4078,7 +2877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K36">
+  <conditionalFormatting sqref="K26:K39">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4103,13 +2902,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="5">
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/5-Manual.xlsx
+++ b/5-Manual.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2458E2-8812-46A7-BB3A-BDB795D0405A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759E5F46-FC63-45EC-813A-0CF163416691}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
   <si>
     <t>lr_prtr</t>
   </si>
@@ -91,9 +91,6 @@
     <t>200, 150, 200</t>
   </si>
   <si>
-    <t>adjacent, result worse?</t>
-  </si>
-  <si>
     <t>150, 100, 150</t>
   </si>
   <si>
@@ -136,12 +133,6 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>pca_dim</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>raw+dsift+pca</t>
   </si>
   <si>
@@ -158,6 +149,48 @@
   </si>
   <si>
     <t>bad reconstr, assymetric</t>
+  </si>
+  <si>
+    <t>raw+pca</t>
+  </si>
+  <si>
+    <t>compressed</t>
+  </si>
+  <si>
+    <t>good reconstr, diagonal</t>
+  </si>
+  <si>
+    <t>data_dim</t>
+  </si>
+  <si>
+    <t>great reconstr, diagonal</t>
+  </si>
+  <si>
+    <t>great reconstr, noisy</t>
+  </si>
+  <si>
+    <t>good reconstr, noisy</t>
+  </si>
+  <si>
+    <t>diagonal, result worse?</t>
+  </si>
+  <si>
+    <t>256, 64, 256</t>
+  </si>
+  <si>
+    <t>256, 32, 256</t>
+  </si>
+  <si>
+    <t>fuzzy reconstr, diagonal</t>
+  </si>
+  <si>
+    <t>fuzzy reconstr, block edges</t>
+  </si>
+  <si>
+    <t>compressed+pca</t>
+  </si>
+  <si>
+    <t>bad reconstr, noisy</t>
   </si>
 </sst>
 </file>
@@ -1509,11 +1542,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00CDF5DE-0375-4BDB-B23A-AF564A5A527A}" name="Table13" displayName="Table13" ref="A25:L39" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
-  <autoFilter ref="A25:L39" xr:uid="{EAE40F85-04B2-431F-950A-5FD70A546887}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00CDF5DE-0375-4BDB-B23A-AF564A5A527A}" name="Table13" displayName="Table13" ref="A25:L54" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
+  <autoFilter ref="A25:L54" xr:uid="{EAE40F85-04B2-431F-950A-5FD70A546887}"/>
   <tableColumns count="12">
     <tableColumn id="5" xr3:uid="{931BD193-043B-47F6-9929-51D7539734E4}" name="Column1" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{AC8A531F-7315-4314-89D2-8919F8970F5F}" name="pca_dim" dataDxfId="45"/>
+    <tableColumn id="14" xr3:uid="{AC8A531F-7315-4314-89D2-8919F8970F5F}" name="data_dim" dataDxfId="45"/>
     <tableColumn id="15" xr3:uid="{572CF684-EE38-4551-9747-6A8BEF707F3C}" name="layers" dataDxfId="44"/>
     <tableColumn id="1" xr3:uid="{AC9CAC91-E2BE-4A00-8891-4EAB27D5F73C}" name="pre_ep" dataDxfId="43"/>
     <tableColumn id="2" xr3:uid="{21F2DACE-56C6-417D-B173-DC93C690501C}" name="epochs" dataDxfId="42"/>
@@ -1836,15 +1869,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
@@ -2182,7 +2215,7 @@
         <v>0.52361111111111103</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -2218,10 +2251,10 @@
     </row>
     <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>20</v>
@@ -2295,7 +2328,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>300</v>
@@ -2328,7 +2361,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="O26" s="22"/>
       <c r="S26" s="11"/>
@@ -2342,7 +2375,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>300</v>
@@ -2386,13 +2419,13 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>300</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28">
         <v>1000</v>
@@ -2419,7 +2452,7 @@
         <v>0.60277777777777697</v>
       </c>
       <c r="L28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O28" s="22"/>
       <c r="S28" s="12"/>
@@ -2433,13 +2466,13 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>300</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>10000</v>
@@ -2466,7 +2499,7 @@
         <v>0.77847222222222201</v>
       </c>
       <c r="L29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O29" s="22"/>
       <c r="S29" s="13"/>
@@ -2480,13 +2513,13 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>300</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30">
         <v>10000</v>
@@ -2513,18 +2546,18 @@
         <v>0.44791666666666602</v>
       </c>
       <c r="L30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>1000</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31">
         <v>5000</v>
@@ -2551,18 +2584,18 @@
         <v>0.844444444444444</v>
       </c>
       <c r="L31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>1000</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32">
         <v>5000</v>
@@ -2589,18 +2622,19 @@
         <v>0.563888888888888</v>
       </c>
       <c r="L32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f>128^2</f>
+        <v>16384</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="D33">
         <v>1000</v>
@@ -2627,18 +2661,19 @@
         <v>0.156944444444444</v>
       </c>
       <c r="L33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <f>128^2</f>
+        <v>16384</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="D34">
         <v>1000</v>
@@ -2665,18 +2700,19 @@
         <v>0.75763888888888797</v>
       </c>
       <c r="L34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <f>128^2</f>
+        <v>16384</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="D35">
         <v>1000</v>
@@ -2703,18 +2739,19 @@
         <v>0.66180555555555498</v>
       </c>
       <c r="L35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <f>128^2</f>
+        <v>16384</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="D36">
         <v>1000</v>
@@ -2741,18 +2778,18 @@
         <v>0.60972222222222205</v>
       </c>
       <c r="L36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>1000</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <v>5000</v>
@@ -2779,18 +2816,18 @@
         <v>0.55486111111111103</v>
       </c>
       <c r="L37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>1000</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>5000</v>
@@ -2817,18 +2854,18 @@
         <v>0.65486111111111101</v>
       </c>
       <c r="L38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>1000</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D39">
         <v>1000</v>
@@ -2840,7 +2877,7 @@
         <v>63</v>
       </c>
       <c r="G39" s="13">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H39" s="2">
         <v>2.0000000000000002E-5</v>
@@ -2855,7 +2892,587 @@
         <v>0.561805555555555</v>
       </c>
       <c r="L39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>1000</v>
+      </c>
+      <c r="E40">
+        <v>500</v>
+      </c>
+      <c r="F40">
+        <v>63</v>
+      </c>
+      <c r="G40" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I40" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J40" s="17">
+        <v>20</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.53888888888888797</v>
+      </c>
+      <c r="L40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>1000</v>
+      </c>
+      <c r="E41">
+        <v>50000</v>
+      </c>
+      <c r="F41">
+        <v>63</v>
+      </c>
+      <c r="G41" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="17">
+        <v>20</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.76597222222222205</v>
+      </c>
+      <c r="L41" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>1000</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>1000</v>
+      </c>
+      <c r="E42">
+        <v>50000</v>
+      </c>
+      <c r="F42">
+        <v>63</v>
+      </c>
+      <c r="G42" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="17">
+        <v>99999</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.470138888888888</v>
+      </c>
+      <c r="L42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>1000</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43">
+        <v>1000</v>
+      </c>
+      <c r="E43">
+        <v>50000</v>
+      </c>
+      <c r="F43">
+        <v>63</v>
+      </c>
+      <c r="G43" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I43" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J43" s="17">
+        <v>20</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.75833333333333297</v>
+      </c>
+      <c r="L43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1000</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>1000</v>
+      </c>
+      <c r="E44">
+        <v>50000</v>
+      </c>
+      <c r="F44">
+        <v>63</v>
+      </c>
+      <c r="G44" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I44" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J44" s="17">
+        <v>99999</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.49861111111111101</v>
+      </c>
+      <c r="L44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f>32^2</f>
+        <v>1024</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45">
+        <v>1000</v>
+      </c>
+      <c r="E45">
+        <v>50000</v>
+      </c>
+      <c r="F45">
+        <v>63</v>
+      </c>
+      <c r="G45" s="12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J45" s="16">
+        <v>20</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0.375694444444444</v>
+      </c>
+      <c r="L45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f>32^2</f>
+        <v>1024</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46">
+        <v>1000</v>
+      </c>
+      <c r="E46">
+        <v>50000</v>
+      </c>
+      <c r="F46">
+        <v>63</v>
+      </c>
+      <c r="G46" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I46" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J46" s="17">
+        <v>99999</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.44305555555555498</v>
+      </c>
+      <c r="L46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <f>32^2</f>
+        <v>1024</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47">
+        <v>10000</v>
+      </c>
+      <c r="E47">
+        <v>50000</v>
+      </c>
+      <c r="F47">
+        <v>63</v>
+      </c>
+      <c r="G47" s="12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="I47" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J47" s="16">
+        <v>20</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="L47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <f>32^2</f>
+        <v>1024</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48">
+        <v>10000</v>
+      </c>
+      <c r="E48">
+        <v>50000</v>
+      </c>
+      <c r="F48">
+        <v>63</v>
+      </c>
+      <c r="G48" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I48" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J48" s="17">
+        <v>99999</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0.53680555555555498</v>
+      </c>
+      <c r="L48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49">
+        <f>32^2</f>
+        <v>1024</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49">
+        <v>10000</v>
+      </c>
+      <c r="E49">
+        <v>50000</v>
+      </c>
+      <c r="F49">
+        <v>63</v>
+      </c>
+      <c r="G49" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I49" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J49" s="17">
+        <v>20</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.44583333333333303</v>
+      </c>
+      <c r="L49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <f>32^2</f>
+        <v>1024</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50">
+        <v>10000</v>
+      </c>
+      <c r="E50">
+        <v>50000</v>
+      </c>
+      <c r="F50">
+        <v>63</v>
+      </c>
+      <c r="G50" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I50" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J50" s="17">
+        <v>99999</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0.59166666666666601</v>
+      </c>
+      <c r="L50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <f>32^2</f>
+        <v>1024</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51">
+        <v>10000</v>
+      </c>
+      <c r="E51">
+        <v>10000</v>
+      </c>
+      <c r="F51">
+        <v>63</v>
+      </c>
+      <c r="G51" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I51" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J51" s="17">
+        <v>20</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0.59861111111111098</v>
+      </c>
+      <c r="L51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52">
+        <f>32^2</f>
+        <v>1024</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52">
+        <v>10000</v>
+      </c>
+      <c r="E52">
+        <v>10000</v>
+      </c>
+      <c r="F52">
+        <v>63</v>
+      </c>
+      <c r="G52" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I52" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J52" s="17">
+        <v>99999</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0.64444444444444404</v>
+      </c>
+      <c r="L52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <v>10000</v>
+      </c>
+      <c r="E53">
+        <v>10000</v>
+      </c>
+      <c r="F53">
+        <v>63</v>
+      </c>
+      <c r="G53" s="12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="I53" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J53" s="16">
+        <v>20</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0.70138888888888795</v>
+      </c>
+      <c r="L53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>10000</v>
+      </c>
+      <c r="E54">
+        <v>10000</v>
+      </c>
+      <c r="F54">
+        <v>63</v>
+      </c>
+      <c r="G54" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I54" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J54" s="17">
+        <v>99999</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0.61180555555555505</v>
+      </c>
+      <c r="L54" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2877,7 +3494,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K39">
+  <conditionalFormatting sqref="K26:K54">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/5-Manual.xlsx
+++ b/5-Manual.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759E5F46-FC63-45EC-813A-0CF163416691}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522202BC-D12E-4A73-8A3E-8E29C24F3FB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1212" yWindow="0" windowWidth="21828" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1824" yWindow="1584" windowWidth="21828" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
   <si>
     <t>lr_prtr</t>
   </si>
@@ -191,6 +191,27 @@
   </si>
   <si>
     <t>bad reconstr, noisy</t>
+  </si>
+  <si>
+    <t>TODO 2.0</t>
+  </si>
+  <si>
+    <t>no decay</t>
+  </si>
+  <si>
+    <t>batch test</t>
+  </si>
+  <si>
+    <t>bigger model</t>
+  </si>
+  <si>
+    <t>lr find</t>
+  </si>
+  <si>
+    <t>validation stopping</t>
+  </si>
+  <si>
+    <t>seed fixing</t>
   </si>
 </sst>
 </file>
@@ -554,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -592,19 +613,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="59">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1316,6 +1331,14 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1545,62 +1568,62 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00CDF5DE-0375-4BDB-B23A-AF564A5A527A}" name="Table13" displayName="Table13" ref="A25:L54" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
   <autoFilter ref="A25:L54" xr:uid="{EAE40F85-04B2-431F-950A-5FD70A546887}"/>
   <tableColumns count="12">
-    <tableColumn id="5" xr3:uid="{931BD193-043B-47F6-9929-51D7539734E4}" name="Column1" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{AC8A531F-7315-4314-89D2-8919F8970F5F}" name="data_dim" dataDxfId="45"/>
-    <tableColumn id="15" xr3:uid="{572CF684-EE38-4551-9747-6A8BEF707F3C}" name="layers" dataDxfId="44"/>
-    <tableColumn id="1" xr3:uid="{AC9CAC91-E2BE-4A00-8891-4EAB27D5F73C}" name="pre_ep" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{21F2DACE-56C6-417D-B173-DC93C690501C}" name="epochs" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{4AF91561-887D-4E32-A02E-9D7FA6986FBB}" name="i1/i2" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{DC90DC99-F0B3-4E29-8612-A3432C16D576}" name="lr_prtr" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{EF34CB1B-E29C-45C0-80BB-25846005F453}" name="learnr" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{B614A6AA-2FDA-4D30-B8A7-9D3FD682F832}" name="lamb2" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{57A94BED-C4AA-4240-A4A5-6CE072FDC84C}" name="alph2" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{D21931B9-F580-4A37-8FFC-BF819F14B3FC}" name="acc" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{B3685B6E-B0FB-49F7-8FD4-7AD9BCE47559}" name="notes" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{931BD193-043B-47F6-9929-51D7539734E4}" name="Column1" dataDxfId="45"/>
+    <tableColumn id="14" xr3:uid="{AC8A531F-7315-4314-89D2-8919F8970F5F}" name="data_dim" dataDxfId="44"/>
+    <tableColumn id="15" xr3:uid="{572CF684-EE38-4551-9747-6A8BEF707F3C}" name="layers" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{AC9CAC91-E2BE-4A00-8891-4EAB27D5F73C}" name="pre_ep" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{21F2DACE-56C6-417D-B173-DC93C690501C}" name="epochs" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{4AF91561-887D-4E32-A02E-9D7FA6986FBB}" name="i1/i2" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{DC90DC99-F0B3-4E29-8612-A3432C16D576}" name="lr_prtr" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{EF34CB1B-E29C-45C0-80BB-25846005F453}" name="learnr" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{B614A6AA-2FDA-4D30-B8A7-9D3FD682F832}" name="lamb2" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{57A94BED-C4AA-4240-A4A5-6CE072FDC84C}" name="alph2" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{D21931B9-F580-4A37-8FFC-BF819F14B3FC}" name="acc" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{B3685B6E-B0FB-49F7-8FD4-7AD9BCE47559}" name="notes" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4016D69D-5CAF-4304-8329-7F5BD54975D7}" name="Table15" displayName="Table15" ref="M2:Y6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4016D69D-5CAF-4304-8329-7F5BD54975D7}" name="Table15" displayName="Table15" ref="M2:Y6" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30">
   <autoFilter ref="M2:Y6" xr:uid="{B208906F-7FE0-4F3C-AAB7-A79C072068FA}"/>
   <tableColumns count="13">
-    <tableColumn id="14" xr3:uid="{5DDE1E6F-F2D6-4BE2-83AC-B2FCEDAB8587}" name="pca" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{5597B765-CF6D-48D7-AF1D-795C0B8F8605}" name="layers" dataDxfId="29"/>
-    <tableColumn id="1" xr3:uid="{0FC9A684-A03C-4666-A357-BEA7ED6897E6}" name="pre_ep" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{DDE21D6F-2180-4F46-8F90-FF1313A0CF78}" name="epochs" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{47498AC8-A90A-44DB-B214-70FE20E47B92}" name="i1/i2" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{7C53C13A-C543-4CAA-9D53-E229142BB86C}" name="lr_prtr" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{F5BEB2A4-E0AC-476B-A6AD-99DFEC92DE30}" name="alph1" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{41A24998-EA10-4CF9-A5A6-6A1361A662E1}" name="learnr" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{575B5BAF-5A93-47E1-A197-E57A97FE7A78}" name="lamb1" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{9239EAB0-08CB-426A-9E9F-F7725DFFFEC3}" name="lamb2" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{96E1DA8E-9E66-4610-B36B-F9C903BE47C3}" name="alph2" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{709A0902-1971-42D7-8DE5-AFCEB77322D0}" name="acc" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{422E8FFC-78A8-44F0-A1A0-8ACB9C29F021}" name="notes" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{5DDE1E6F-F2D6-4BE2-83AC-B2FCEDAB8587}" name="pca" dataDxfId="29"/>
+    <tableColumn id="15" xr3:uid="{5597B765-CF6D-48D7-AF1D-795C0B8F8605}" name="layers" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{0FC9A684-A03C-4666-A357-BEA7ED6897E6}" name="pre_ep" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{DDE21D6F-2180-4F46-8F90-FF1313A0CF78}" name="epochs" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{47498AC8-A90A-44DB-B214-70FE20E47B92}" name="i1/i2" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{7C53C13A-C543-4CAA-9D53-E229142BB86C}" name="lr_prtr" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{F5BEB2A4-E0AC-476B-A6AD-99DFEC92DE30}" name="alph1" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{41A24998-EA10-4CF9-A5A6-6A1361A662E1}" name="learnr" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{575B5BAF-5A93-47E1-A197-E57A97FE7A78}" name="lamb1" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{9239EAB0-08CB-426A-9E9F-F7725DFFFEC3}" name="lamb2" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{96E1DA8E-9E66-4610-B36B-F9C903BE47C3}" name="alph2" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{709A0902-1971-42D7-8DE5-AFCEB77322D0}" name="acc" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{422E8FFC-78A8-44F0-A1A0-8ACB9C29F021}" name="notes" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FFAEAE33-3FBC-4430-88D8-FE817172CD49}" name="Table16" displayName="Table16" ref="N25:Z29" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FFAEAE33-3FBC-4430-88D8-FE817172CD49}" name="Table16" displayName="Table16" ref="N25:Z29" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <autoFilter ref="N25:Z29" xr:uid="{BCE1FC0C-5EB3-4AB6-9340-C41EA5B30D38}"/>
   <tableColumns count="13">
-    <tableColumn id="14" xr3:uid="{1C7798C3-6D5E-43EA-B2D8-E63F254AC79C}" name="pca" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{5D42A5FF-D86F-4EE5-9029-F611334564EE}" name="layers" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{9C956116-FB38-4412-ADF1-3CF45803D5AE}" name="pre_ep" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{016E1EA2-C1F2-4D9A-9D52-E666817617C2}" name="epochs" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2985F4EB-6BFF-4A64-A8F8-7964E9AFC23D}" name="i1/i2" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BB795376-94EC-45A0-A320-636FDA2E458C}" name="lr_prtr" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{CCEA4703-03C0-46A2-AEB2-8E8A318BCC07}" name="alph1" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{BE649A4F-DA29-4811-AC4F-A76699BA434E}" name="learnr" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{7628F750-0BC7-4BAE-A2E5-19FC5A714D78}" name="lamb1" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{C7AD7A71-29EC-42C7-A9C6-3A56888DE895}" name="lamb2" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{EDC4218C-31B6-47E8-B0DA-E59D42ECE5B1}" name="alph2" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{5F0B4EDC-8B04-4BC7-9FF2-3245C63C556F}" name="acc" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{3E2205B4-3B51-4FFE-B357-413D7E1C3A5E}" name="notes" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{1C7798C3-6D5E-43EA-B2D8-E63F254AC79C}" name="pca" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{5D42A5FF-D86F-4EE5-9029-F611334564EE}" name="layers" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{9C956116-FB38-4412-ADF1-3CF45803D5AE}" name="pre_ep" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{016E1EA2-C1F2-4D9A-9D52-E666817617C2}" name="epochs" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{2985F4EB-6BFF-4A64-A8F8-7964E9AFC23D}" name="i1/i2" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{BB795376-94EC-45A0-A320-636FDA2E458C}" name="lr_prtr" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{CCEA4703-03C0-46A2-AEB2-8E8A318BCC07}" name="alph1" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{BE649A4F-DA29-4811-AC4F-A76699BA434E}" name="learnr" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{7628F750-0BC7-4BAE-A2E5-19FC5A714D78}" name="lamb1" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{C7AD7A71-29EC-42C7-A9C6-3A56888DE895}" name="lamb2" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{EDC4218C-31B6-47E8-B0DA-E59D42ECE5B1}" name="alph2" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{5F0B4EDC-8B04-4BC7-9FF2-3245C63C556F}" name="acc" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{3E2205B4-3B51-4FFE-B357-413D7E1C3A5E}" name="notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1871,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,6 +1922,9 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
       <c r="M1" s="25" t="s">
         <v>11</v>
       </c>
@@ -1931,6 +1957,12 @@
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
       <c r="M2" s="23" t="s">
         <v>21</v>
       </c>
@@ -1987,6 +2019,12 @@
       <c r="E3" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
       <c r="N3" s="22"/>
       <c r="O3">
         <v>1000</v>
@@ -2036,6 +2074,9 @@
       <c r="E4" s="21" t="s">
         <v>17</v>
       </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
       <c r="N4" s="22"/>
       <c r="O4">
         <v>1000</v>
@@ -2084,6 +2125,9 @@
       </c>
       <c r="E5" s="21" t="s">
         <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
       </c>
       <c r="N5" s="22"/>
       <c r="R5" s="12">
@@ -2711,13 +2755,13 @@
         <f>128^2</f>
         <v>16384</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D35">
-        <v>1000</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="30">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="30">
         <v>1000</v>
       </c>
       <c r="F35">
@@ -2750,13 +2794,13 @@
         <f>128^2</f>
         <v>16384</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D36">
-        <v>1000</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="30">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="30">
         <v>1000</v>
       </c>
       <c r="F36">
@@ -2788,13 +2832,13 @@
       <c r="B37">
         <v>1000</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="30">
         <v>5000</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="30">
         <v>5000</v>
       </c>
       <c r="F37">
@@ -2826,13 +2870,13 @@
       <c r="B38">
         <v>1000</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="30">
         <v>5000</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="30">
         <v>5000</v>
       </c>
       <c r="F38">
@@ -2864,13 +2908,13 @@
       <c r="B39">
         <v>1000</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D39">
-        <v>1000</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="30">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="30">
         <v>5000</v>
       </c>
       <c r="F39">
@@ -2902,13 +2946,13 @@
       <c r="B40">
         <v>1000</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D40">
-        <v>1000</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="30">
+        <v>1000</v>
+      </c>
+      <c r="E40" s="30">
         <v>500</v>
       </c>
       <c r="F40">
@@ -3090,7 +3134,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>32^2</f>
+        <f t="shared" ref="B45:B52" si="0">32^2</f>
         <v>1024</v>
       </c>
       <c r="C45" s="22" t="s">
@@ -3129,7 +3173,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <f>32^2</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C46" s="22" t="s">
@@ -3168,7 +3212,7 @@
         <v>44</v>
       </c>
       <c r="B47">
-        <f>32^2</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C47" s="22" t="s">
@@ -3207,7 +3251,7 @@
         <v>44</v>
       </c>
       <c r="B48">
-        <f>32^2</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C48" s="22" t="s">
@@ -3246,7 +3290,7 @@
         <v>44</v>
       </c>
       <c r="B49">
-        <f>32^2</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C49" s="22" t="s">
@@ -3285,7 +3329,7 @@
         <v>44</v>
       </c>
       <c r="B50">
-        <f>32^2</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C50" s="22" t="s">
@@ -3324,7 +3368,7 @@
         <v>44</v>
       </c>
       <c r="B51">
-        <f>32^2</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C51" s="22" t="s">
@@ -3363,7 +3407,7 @@
         <v>44</v>
       </c>
       <c r="B52">
-        <f>32^2</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C52" s="22" t="s">

--- a/5-Manual.xlsx
+++ b/5-Manual.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522202BC-D12E-4A73-8A3E-8E29C24F3FB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE7C5F0-6E81-4909-AAE2-F159BBCCA8E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1824" yWindow="1584" windowWidth="21828" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1212" yWindow="576" windowWidth="21828" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
   <si>
     <t>lr_prtr</t>
   </si>
@@ -191,27 +196,6 @@
   </si>
   <si>
     <t>bad reconstr, noisy</t>
-  </si>
-  <si>
-    <t>TODO 2.0</t>
-  </si>
-  <si>
-    <t>no decay</t>
-  </si>
-  <si>
-    <t>batch test</t>
-  </si>
-  <si>
-    <t>bigger model</t>
-  </si>
-  <si>
-    <t>lr find</t>
-  </si>
-  <si>
-    <t>validation stopping</t>
-  </si>
-  <si>
-    <t>seed fixing</t>
   </si>
 </sst>
 </file>
@@ -601,6 +585,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,8 +599,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1895,7 +1879,7 @@
   <dimension ref="A1:Z54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1915,31 +1899,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="25" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="M1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
     </row>
     <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
@@ -1957,12 +1938,6 @@
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" t="s">
-        <v>62</v>
-      </c>
       <c r="M2" s="23" t="s">
         <v>21</v>
       </c>
@@ -2019,12 +1994,6 @@
       <c r="E3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
       <c r="N3" s="22"/>
       <c r="O3">
         <v>1000</v>
@@ -2074,9 +2043,6 @@
       <c r="E4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
       <c r="N4" s="22"/>
       <c r="O4">
         <v>1000</v>
@@ -2125,9 +2091,6 @@
       </c>
       <c r="E5" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>59</v>
       </c>
       <c r="N5" s="22"/>
       <c r="R5" s="12">
@@ -2263,35 +2226,35 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="N24" s="26" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="N24" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
     </row>
     <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
@@ -2755,13 +2718,13 @@
         <f>128^2</f>
         <v>16384</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="30">
-        <v>1000</v>
-      </c>
-      <c r="E35" s="30">
+      <c r="D35" s="26">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="26">
         <v>1000</v>
       </c>
       <c r="F35">
@@ -2794,13 +2757,13 @@
         <f>128^2</f>
         <v>16384</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="30">
-        <v>1000</v>
-      </c>
-      <c r="E36" s="30">
+      <c r="D36" s="26">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="26">
         <v>1000</v>
       </c>
       <c r="F36">
@@ -2832,13 +2795,13 @@
       <c r="B37">
         <v>1000</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="26">
         <v>5000</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="26">
         <v>5000</v>
       </c>
       <c r="F37">
@@ -2870,13 +2833,13 @@
       <c r="B38">
         <v>1000</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="26">
         <v>5000</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="26">
         <v>5000</v>
       </c>
       <c r="F38">
@@ -2908,13 +2871,13 @@
       <c r="B39">
         <v>1000</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="30">
-        <v>1000</v>
-      </c>
-      <c r="E39" s="30">
+      <c r="D39" s="26">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="26">
         <v>5000</v>
       </c>
       <c r="F39">
@@ -2946,13 +2909,13 @@
       <c r="B40">
         <v>1000</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="30">
-        <v>1000</v>
-      </c>
-      <c r="E40" s="30">
+      <c r="D40" s="26">
+        <v>1000</v>
+      </c>
+      <c r="E40" s="26">
         <v>500</v>
       </c>
       <c r="F40">
